--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>LỚP NHẬP MÔN 03</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Huỳnh Thị Phương Thủy</t>
+  </si>
+  <si>
+    <t>Nguyễn co</t>
   </si>
 </sst>
 </file>
@@ -406,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +469,9 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">

--- a/Lop NM03.xlsx
+++ b/Lop NM03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>LỚP NHẬP MÔN 03</t>
   </si>
@@ -60,14 +60,17 @@
     <t>Huỳnh Thị Phương Thủy</t>
   </si>
   <si>
-    <t>Nguyễn co</t>
+    <t>Nguyễn Công Vương Anh</t>
+  </si>
+  <si>
+    <t>vuonganh550@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +81,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +111,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,15 +423,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,12 +461,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -460,20 +474,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1866734769</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -489,8 +509,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
